--- a/outil-eval-impact-remu.xlsx
+++ b/outil-eval-impact-remu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="28260" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Outil d'évaluation de l'impact des revues de salaire</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Frais de fonctionnement et charges (crédit, loyer, énergie, frais, …)</t>
   </si>
   <si>
-    <t>CA moyen de 180k€ par personne</t>
-  </si>
-  <si>
     <t>Répartition du bénéfice</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>NA - le reste des salariés</t>
   </si>
   <si>
-    <t xml:space="preserve">Salaires fixes + variables </t>
-  </si>
-  <si>
     <t xml:space="preserve">Marge </t>
   </si>
   <si>
@@ -209,17 +203,41 @@
   </si>
   <si>
     <t>Indice INSEE</t>
+  </si>
+  <si>
+    <t>CA moyen par personne</t>
+  </si>
+  <si>
+    <t>Chiffre d'affaire de la société</t>
+  </si>
+  <si>
+    <t>Masse salariale = CA - invest - rem du capital - frais</t>
+  </si>
+  <si>
+    <t>TOTAL ANNUEL</t>
+  </si>
+  <si>
+    <t>Salaires fixes + variables ACTUELS NETS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,83 +398,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -468,8 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="32">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +520,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Monétaire" xfId="31" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,6 +867,7 @@
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="56" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25">
@@ -867,9 +889,12 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6">
-        <f>200*1800000</f>
-        <v>360000000</v>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="6">
+        <f>A6*J4</f>
+        <v>22000000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -883,7 +908,10 @@
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="J4" s="26">
+        <v>110000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -902,382 +930,408 @@
         <v>200</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="18">
-      <c r="A11" s="3" t="s">
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" ht="46" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="46" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="B9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="E9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="G9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="22">
-        <f>I3</f>
-        <v>360000000</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>61</v>
+      <c r="J9" s="22">
+        <f>J3</f>
+        <v>22000000</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f>(VLOOKUP(B10,'Grille de salaire'!$A$3:$C$15,3,FALSE))</f>
+        <v>2600</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="6">
+        <f>($C10*$D10*12)*$A$4</f>
+        <v>14976</v>
+      </c>
+      <c r="F10">
+        <f>A5</f>
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="6">
+        <f>J9*K10</f>
+        <v>4400000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(B11,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E15" si="0">($C11*$D11*12)*$A$4</f>
+        <v>7488</v>
+      </c>
+      <c r="F11">
+        <f>A5</f>
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6">
+        <f>J10/3</f>
+        <v>1466666.6666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
+        <v>6100</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>A5/2</f>
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="6">
+        <f>J10/3</f>
+        <v>1466666.6666666667</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <f>(VLOOKUP(B13,'Grille de salaire'!$A$3:$C$15,3,FALSE))</f>
-        <v>2600</v>
+        <f>VLOOKUP(B13,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
+        <v>6100</v>
       </c>
       <c r="D13" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="6">
-        <f>($C13*$D13*12)*$A$4</f>
-        <v>14976</v>
+        <f t="shared" si="0"/>
+        <v>43920</v>
       </c>
       <c r="F13">
         <f>A5</f>
         <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6">
-        <f>J12*K13</f>
-        <v>72000000</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.2</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <f>VLOOKUP(B14,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="D14" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:E18" si="0">($C14*$D14*12)*$A$4</f>
-        <v>7488</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>A5</f>
         <v>200</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6">
-        <v>20000000</v>
+        <f>12*C17+E17</f>
+        <v>11618352</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <f>VLOOKUP(B15,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5904</v>
       </c>
       <c r="F15">
-        <f>A5/2</f>
-        <v>100</v>
+        <f>A5</f>
+        <v>200</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="6">
-        <f>10%*J12</f>
-        <v>36000000</v>
+        <f>C18*(1+0.5+0.24)</f>
+        <v>17100720</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(B16,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="D16" s="8">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>43920</v>
+        <f>($C16*$D16*12)*$A$4*(A6-COUNTA(B10:B15))</f>
+        <v>1718064</v>
       </c>
       <c r="F16">
-        <f>A5</f>
-        <v>200</v>
+        <f>A5*(A6-COUNTA(A10:A15))</f>
+        <v>38800</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J16" s="6">
-        <v>120000000</v>
+        <f>J9-J11-J12-J13</f>
+        <v>17866666.666666664</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
       <c r="B17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(B17,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
-        <v>2100</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
+        <f>SUM(C10:C15)+C16*(A6-COUNTA(A10:A15))</f>
+        <v>819000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:E17" si="1">SUM(D10:D16)</f>
+        <v>1.35</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>A5</f>
-        <v>200</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="6">
-        <f>J18*(1+0.5+0.24)</f>
-        <v>116846715.32846715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <f>VLOOKUP(B18,'Grille de salaire'!$A$3:$C$15,3,FALSE)</f>
-        <v>4100</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>5904</v>
-      </c>
-      <c r="F18">
-        <f>A5</f>
-        <v>200</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="6">
-        <f>(J12-SUM(J14:J16))/2.74</f>
-        <v>67153284.67153284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19">
-        <v>4100</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E19" s="6">
-        <f>($C19*$D19*12)*$A$4*(A6-COUNTA(B13:B18))</f>
-        <v>1718064</v>
-      </c>
-      <c r="F19">
-        <f>A5*(A6-COUNTA(A13:A18))</f>
-        <v>38800</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="6">
-        <f>12*C20+E20</f>
-        <v>11618352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C13:C18)+C19*(A6-COUNTA(A13:A18))</f>
-        <v>819000</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:E20" si="1">SUM(D13:D19)</f>
-        <v>1.35</v>
-      </c>
-      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>1790352</v>
       </c>
-      <c r="F20">
-        <f>SUM(F13:F19)</f>
+      <c r="F17">
+        <f>SUM(F10:F16)</f>
         <v>39900</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18">
-      <c r="A22" s="5" t="s">
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="6">
+        <f>(J9-SUM(J11:J13))/2.74</f>
+        <v>6520681.2652068129</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <f>C17*12</f>
+        <v>9828000</v>
+      </c>
+      <c r="E18" s="6">
+        <f>E17</f>
+        <v>1790352</v>
+      </c>
+      <c r="F18" s="6">
+        <f>E18+C18</f>
+        <v>11618352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5">
         <v>1.02</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="6">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="6">
+        <f>J20*K21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="6">
+        <v>200000</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" s="6">
-        <v>360000000</v>
+        <f>5%*J20</f>
+        <v>18000000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J24" s="6">
-        <f>J23*K24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="6">
-        <v>200000</v>
+        <f>J26*(1+0.5+0.24)</f>
+        <v>216293430.65693429</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26" s="6">
-        <f>5%*J23</f>
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="I27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="6">
-        <f>J29*(1+0.5+0.24)</f>
-        <v>216293430.65693429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="I29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="6">
-        <f>(J23-SUM(J25:J27))/2.74</f>
+        <f>(J20-SUM(J22:J24))/2.74</f>
         <v>124306569.34306568</v>
       </c>
     </row>
@@ -1318,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1344,7 +1398,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>16</v>

--- a/outil-eval-impact-remu.xlsx
+++ b/outil-eval-impact-remu.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t xml:space="preserve">Outil d'évaluation de l'impact des revues de salaire</t>
   </si>
@@ -101,49 +101,52 @@
     <t xml:space="preserve">I</t>
   </si>
   <si>
+    <t xml:space="preserve">Salaires variable estimé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Léonie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salaires variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Léonie</t>
+    <t xml:space="preserve">Larry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Charges patronales et salariales (0,5+0,24)*salaire net</t>
   </si>
   <si>
-    <t xml:space="preserve">Larry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">Lola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Salaires + Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
+    <t xml:space="preserve">Autres salariés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - le reste des salariés</t>
   </si>
   <si>
     <t xml:space="preserve">À répartir entre partage des bénéfices, dividende et investissements</t>
   </si>
   <si>
-    <t xml:space="preserve">Autres salariés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA - le reste des salariés</t>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Investissements</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL</t>
+    <t xml:space="preserve">TOTAL ANNUEL</t>
   </si>
   <si>
     <t xml:space="preserve">Participation aux bénéfices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL ANNUEL</t>
   </si>
   <si>
     <t xml:space="preserve">Rémunération du capital</t>
@@ -237,14 +240,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.00_)&quot; €&quot;_ ;_ * \(#,##0.00&quot;) €&quot;_ ;_ * \-??_)&quot; €&quot;_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_)&quot; €&quot;_ ;_ * \(#,##0&quot;) €&quot;_ ;_ * \-??_)&quot; €&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
-    <numFmt numFmtId="169" formatCode="0.00\ %"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0,%"/>
+    <numFmt numFmtId="170" formatCode="0.00\ %"/>
+    <numFmt numFmtId="171" formatCode="0.00,%"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -430,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,7 +492,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,11 +500,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,7 +532,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,7 +544,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +556,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,25 +637,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="57.7162790697675"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="59.4372093023256"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,6 +754,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" s="10" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -789,14 +799,14 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="13" t="n">
         <f aca="false">(VLOOKUP(B11,'Grille de salaire'!$A$3:$C$15,3,0))</f>
         <v>2600</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <f aca="false">C11*(1-D11)</f>
         <v>1560</v>
       </c>
@@ -812,10 +822,10 @@
       <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="15" t="n">
         <v>2060000</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -824,14 +834,14 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="13" t="n">
         <f aca="false">VLOOKUP(B12,'Grille de salaire'!$A$3:$C$15,3,0)</f>
         <v>2600</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <f aca="false">C12*(1-D12)</f>
         <v>2080</v>
       </c>
@@ -849,7 +859,7 @@
       </c>
       <c r="L12" s="3" t="n">
         <f aca="false">E19</f>
-        <v>8336040</v>
+        <v>7548400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,14 +869,14 @@
       <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="13" t="n">
         <f aca="false">VLOOKUP(B13,'Grille de salaire'!$A$3:$C$15,3,0)</f>
         <v>6100</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <f aca="false">C13*(1-D13)</f>
         <v>6100</v>
       </c>
@@ -884,7 +894,7 @@
       </c>
       <c r="L13" s="3" t="n">
         <f aca="false">F19</f>
-        <v>1790352</v>
+        <v>2269920</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,14 +904,14 @@
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="13" t="n">
         <f aca="false">VLOOKUP(B14,'Grille de salaire'!$A$3:$C$15,3,0)</f>
         <v>6100</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <f aca="false">C14*(1-D14)</f>
         <v>3050</v>
       </c>
@@ -917,10 +927,7 @@
       <c r="K14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="3" t="n">
-        <f aca="false">(L13+L12)*(0.5+0.24)</f>
-        <v>7493530.08</v>
-      </c>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -929,14 +936,14 @@
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="13" t="n">
         <f aca="false">VLOOKUP(B15,'Grille de salaire'!$A$3:$C$15,3,0)</f>
         <v>2100</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <f aca="false">C15*(1-D15)</f>
         <v>2100</v>
       </c>
@@ -953,8 +960,8 @@
         <v>31</v>
       </c>
       <c r="L15" s="3" t="n">
-        <f aca="false">SUM(L12:L14)</f>
-        <v>17619922.08</v>
+        <f aca="false">(L13+L12)*(0.5+0.24)</f>
+        <v>7265556.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,14 +971,14 @@
       <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="13" t="n">
         <f aca="false">VLOOKUP(B16,'Grille de salaire'!$A$3:$C$15,3,0)</f>
         <v>4100</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <v>0.1</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <f aca="false">C16*(1-D16)</f>
         <v>3690</v>
       </c>
@@ -988,8 +995,8 @@
         <v>34</v>
       </c>
       <c r="L16" s="3" t="n">
-        <f aca="false">L10-L15</f>
-        <v>3980077.92</v>
+        <f aca="false">SUM(L12:L14)</f>
+        <v>9818320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,19 +1006,21 @@
       <c r="B17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>4100</v>
-      </c>
-      <c r="D17" s="13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="14" t="n">
+      <c r="C17" s="13" t="n">
+        <f aca="false">AVERAGE(C11:C16)</f>
+        <v>3933.33333333333</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <f aca="false">AVERAGE(D11:D16)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <f aca="false">C17*(1-D17)</f>
-        <v>3485</v>
+        <v>3146.66666666667</v>
       </c>
       <c r="F17" s="3" t="n">
         <f aca="false">($C17*$D17*12)*$A$4*(A$7-COUNTA(B11:B16))</f>
-        <v>1718064</v>
+        <v>2197632</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="0" t="n">
@@ -1021,25 +1030,26 @@
       <c r="K17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="15" t="n">
-        <v>1200000</v>
+      <c r="L17" s="3" t="n">
+        <f aca="false">L10-L16</f>
+        <v>11781680</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="13" t="n">
         <f aca="false">SUM(C11:C16)+C17*($A$7-COUNTA(A11:A16))</f>
-        <v>819000</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>786666.666666667</v>
+      </c>
+      <c r="E18" s="13" t="n">
         <f aca="false">SUM(E11:E16)+E17*($A$7-COUNTA(C11:C16))</f>
-        <v>694670</v>
+        <v>629033.333333333</v>
       </c>
       <c r="F18" s="3" t="n">
         <f aca="false">SUM(F11:F17)</f>
-        <v>1790352</v>
+        <v>2269920</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="0" t="n">
@@ -1050,7 +1060,7 @@
         <v>39</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -1058,25 +1068,28 @@
       <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="13" t="n">
         <f aca="false">C18*12</f>
-        <v>9828000</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>9440000</v>
+      </c>
+      <c r="E19" s="13" t="n">
         <f aca="false">E18*12</f>
-        <v>8336040</v>
+        <v>7548400</v>
       </c>
       <c r="F19" s="3" t="n">
         <f aca="false">F18</f>
-        <v>1790352</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>2269920</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <f aca="false">L14</f>
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="K19" s="0" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="15" t="n">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,116 +1100,93 @@
       <c r="K20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="3" t="n">
-        <f aca="false">L10-L15-L17-L18-L19</f>
-        <v>980077.920000002</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="L20" s="15" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="L21" s="3" t="n">
+        <f aca="false">L10-L16-L18-L19-L20</f>
+        <v>8781680</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="17" t="n">
         <v>1.02</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="K21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="11" t="n">
+      <c r="L23" s="11" t="n">
         <v>17000000</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">C11*$D$21</f>
-        <v>2652</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <f aca="false">C23*(1-D23)</f>
-        <v>1591.2</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <f aca="false">($C23*$D23*12)*$A$4</f>
-        <v>15275.52</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="0" t="n">
-        <f aca="false">$A$5</f>
-        <v>217</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>2060000</v>
-      </c>
-      <c r="M23" s="13"/>
-    </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
-        <f aca="false">C12*$D$21</f>
+        <f aca="false">C11*$D$22</f>
         <v>2652</v>
       </c>
-      <c r="D24" s="13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="14" t="n">
+      <c r="D24" s="14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <f aca="false">C24*(1-D24)</f>
-        <v>2121.6</v>
+        <v>1591.2</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">($C24*$D24*12)*$A$4</f>
-        <v>7637.76</v>
+        <v>15275.52</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="0" t="n">
@@ -1204,34 +1194,34 @@
         <v>217</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L24" s="3" t="n">
-        <f aca="false">E31</f>
-        <v>8470080</v>
-      </c>
+        <v>2060000</v>
+      </c>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
-        <f aca="false">C13*$D$21</f>
-        <v>6222</v>
-      </c>
-      <c r="D25" s="13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="14" t="n">
+        <f aca="false">C12*$D$22</f>
+        <v>2652</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <f aca="false">C25*(1-D25)</f>
-        <v>4355.4</v>
+        <v>2121.6</v>
       </c>
       <c r="F25" s="3" t="n">
         <f aca="false">($C25*$D25*12)*$A$4</f>
-        <v>26879.04</v>
+        <v>7637.76</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="0" t="n">
@@ -1239,33 +1229,34 @@
         <v>217</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>1200000</v>
+        <f aca="false">E32</f>
+        <v>8133684</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="0" t="n">
-        <f aca="false">C14*$D$21</f>
+        <f aca="false">C13*$D$22</f>
         <v>6222</v>
       </c>
-      <c r="D26" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="14" t="n">
+      <c r="D26" s="14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <f aca="false">C26*(1-D26)</f>
-        <v>3111</v>
+        <v>4355.4</v>
       </c>
       <c r="F26" s="3" t="n">
         <f aca="false">($C26*$D26*12)*$A$4</f>
-        <v>44798.4</v>
+        <v>26879.04</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="0" t="n">
@@ -1276,31 +1267,30 @@
         <v>28</v>
       </c>
       <c r="L26" s="3" t="n">
-        <f aca="false">(L25+L24)*(0.5+0.24)</f>
-        <v>7155859.2</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="n">
-        <f aca="false">C15*$D$21</f>
-        <v>2142</v>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="14" t="n">
+        <f aca="false">C14*$D$22</f>
+        <v>6222</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <f aca="false">C27*(1-D27)</f>
-        <v>1285.2</v>
+        <v>3111</v>
       </c>
       <c r="F27" s="3" t="n">
         <f aca="false">($C27*$D27*12)*$A$4</f>
-        <v>12337.92</v>
+        <v>44798.4</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="0" t="n">
@@ -1311,31 +1301,31 @@
         <v>31</v>
       </c>
       <c r="L27" s="3" t="n">
-        <f aca="false">SUM(L24:L26)</f>
-        <v>16825939.2</v>
+        <f aca="false">(L26+L25)*(0.5+0.24)</f>
+        <v>6906926.16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
-        <f aca="false">C16*$D$21</f>
-        <v>4182</v>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E28" s="14" t="n">
+        <f aca="false">C15*$D$22</f>
+        <v>2142</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <f aca="false">C28*(1-D28)</f>
-        <v>3763.8</v>
+        <v>1285.2</v>
       </c>
       <c r="F28" s="3" t="n">
         <f aca="false">($C28*$D28*12)*$A$4</f>
-        <v>6022.08</v>
+        <v>12337.92</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="0" t="n">
@@ -1346,93 +1336,100 @@
         <v>34</v>
       </c>
       <c r="L28" s="3" t="n">
-        <f aca="false">L22-L27</f>
-        <v>174060.800000004</v>
+        <f aca="false">SUM(L25:L27)</f>
+        <v>16240610.16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="0" t="n">
-        <f aca="false">C17*$D$21</f>
+        <f aca="false">C16*$D$22</f>
         <v>4182</v>
       </c>
-      <c r="D29" s="13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E29" s="14" t="n">
+      <c r="D29" s="14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <f aca="false">C29*(1-D29)</f>
-        <v>3554.7</v>
+        <v>3763.8</v>
       </c>
       <c r="F29" s="3" t="n">
-        <f aca="false">($C29*$D29*12)*$A$4*(A$7-COUNTA(B23:B28))</f>
-        <v>1752425.28</v>
+        <f aca="false">($C29*$D29*12)*$A$4</f>
+        <v>6022.08</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="0" t="n">
-        <f aca="false">A$5*(A$7-COUNTA(A23:A28))</f>
-        <v>42315</v>
+        <f aca="false">$A$5</f>
+        <v>217</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="15" t="n">
-        <v>100000</v>
+      <c r="L29" s="3" t="n">
+        <f aca="false">L23-L28</f>
+        <v>759389.840000004</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
-        <v>38</v>
+      <c r="A30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="n">
-        <f aca="false">SUM(C23:C28)+C29*(A$7-COUNTA(A23:A28))</f>
-        <v>839562</v>
-      </c>
-      <c r="D30" s="17"/>
+        <f aca="false">C17*$D$22</f>
+        <v>4012</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>0.15</v>
+      </c>
       <c r="E30" s="0" t="n">
-        <f aca="false">SUM(E23:E28)+E29*($A$7-COUNTA(C23:C28))</f>
-        <v>705840</v>
+        <f aca="false">C30*(1-D30)</f>
+        <v>3410.2</v>
       </c>
       <c r="F30" s="3" t="n">
-        <f aca="false">SUM(F23:F29)</f>
-        <v>1865376</v>
+        <f aca="false">($C30*$D30*12)*$A$4*(A$7-COUNTA(B24:B29))</f>
+        <v>1681188.48</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="0" t="n">
-        <f aca="false">SUM(H23:H29)</f>
-        <v>43617</v>
+        <f aca="false">A$5*(A$7-COUNTA(A24:A29))</f>
+        <v>42315</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="15" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="0" t="n">
-        <f aca="false">C30*12</f>
-        <v>10074744</v>
-      </c>
+        <f aca="false">SUM(C24:C29)+C30*(A$7-COUNTA(A24:A29))</f>
+        <v>806412</v>
+      </c>
+      <c r="D31" s="18"/>
       <c r="E31" s="0" t="n">
-        <f aca="false">E30*12</f>
-        <v>8470080</v>
+        <f aca="false">SUM(E24:E29)+E30*($A$7-COUNTA(C24:C29))</f>
+        <v>677807</v>
       </c>
       <c r="F31" s="3" t="n">
-        <f aca="false">F30</f>
-        <v>1865376</v>
+        <f aca="false">SUM(F24:F30)</f>
+        <v>1794139.2</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3" t="n">
-        <f aca="false">F31+C31</f>
-        <v>11940120</v>
+      <c r="H31" s="0" t="n">
+        <f aca="false">SUM(H24:H30)</f>
+        <v>43617</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>41</v>
@@ -1442,12 +1439,40 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">C31*12</f>
+        <v>9676944</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">E31*12</f>
+        <v>8133684</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <f aca="false">F31</f>
+        <v>1794139.2</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="n">
+        <f aca="false">F32+C32</f>
+        <v>11471083.2</v>
+      </c>
       <c r="K32" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="3" t="n">
-        <f aca="false">L22-L27-L29-L30-L31</f>
-        <v>74060.8000000045</v>
+      <c r="L32" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <f aca="false">L23-L28-L30-L31-L32</f>
+        <v>659389.840000004</v>
       </c>
     </row>
   </sheetData>
@@ -1474,208 +1499,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="11.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="32.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="18" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="19" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="12" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="B4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="24" t="n">
         <f aca="false">1600</f>
         <v>1600</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="24" t="n">
         <f aca="false">C4*12/0.74</f>
         <v>25945.9459459459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="26" t="n">
+      <c r="B5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="27" t="n">
         <v>2100</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27" t="n">
         <f aca="false">C5*12/0.74</f>
         <v>34054.0540540541</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="23" t="n">
+      <c r="B6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="24" t="n">
         <v>2600</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="24" t="n">
         <f aca="false">C6*12/0.74</f>
         <v>42162.1621621622</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="B7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="27" t="n">
         <v>3100</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="27" t="n">
         <f aca="false">C7*12/0.74</f>
         <v>50270.2702702703</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="B8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24" t="n">
         <v>3600</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="24" t="n">
         <f aca="false">C8*12/0.74</f>
         <v>58378.3783783784</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="26" t="n">
+      <c r="B9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>4100</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="27" t="n">
         <f aca="false">C9*12/0.74</f>
         <v>66486.4864864865</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="B10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="24" t="n">
         <v>4600</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="24" t="n">
         <f aca="false">C10*12/0.74</f>
         <v>74594.5945945946</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="26" t="n">
+      <c r="B11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="27" t="n">
         <v>5100</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="27" t="n">
         <f aca="false">C11*12/0.74</f>
         <v>82702.7027027027</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="23" t="n">
+      <c r="B12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="24" t="n">
         <v>6100</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="24" t="n">
         <f aca="false">C12*12/0.74</f>
         <v>98918.9189189189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="26" t="n">
+      <c r="B13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="27" t="n">
         <v>7100</v>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="27" t="n">
         <f aca="false">C13*12/0.74</f>
         <v>115135.135135135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="B14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="24" t="n">
         <v>8100</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="24" t="n">
         <f aca="false">C14*12/0.74</f>
         <v>131351.351351351</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="B15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="30" t="n">
         <v>9100</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="30" t="n">
         <f aca="false">C15*12/0.74</f>
         <v>147567.567567568</v>
       </c>
